--- a/data/music_subset.xlsx
+++ b/data/music_subset.xlsx
@@ -1160,7 +1160,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -10708,7 +10708,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -13060,7 +13060,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -14404,7 +14404,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -15216,7 +15216,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -15384,7 +15384,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -16336,7 +16336,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -17540,7 +17540,7 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
@@ -18100,7 +18100,7 @@
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
@@ -18604,7 +18604,7 @@
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F656" t="inlineStr">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F671" t="inlineStr">
@@ -19668,7 +19668,7 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
@@ -19976,7 +19976,7 @@
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
@@ -20508,7 +20508,7 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Neway Debebe - Yene Alem</t>
+          <t>Neway Debebe - Yamral Tiletish</t>
         </is>
       </c>
       <c r="F717" t="inlineStr">
